--- a/Small Caps/JMIA.xlsx
+++ b/Small Caps/JMIA.xlsx
@@ -8,43 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Small Caps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C13CE4-3ECF-BC45-A131-8A88A678CE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CE887F-A24D-5F42-A9E1-57EC2265DFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF Model" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'DCF Model'!$A$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'DCF Model'!$A$15</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'DCF Model'!$B$10:$J$10</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'DCF Model'!$B$15:$J$15</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'DCF Model'!$B$18:$J$18</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'DCF Model'!$B$9:$J$9</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'DCF Model'!$A$10</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'DCF Model'!$A$15</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'DCF Model'!$A$18</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'DCF Model'!$B$10:$J$10</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'DCF Model'!$B$15:$J$15</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'DCF Model'!$B$18:$J$18</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'DCF Model'!$A$18</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'DCF Model'!$B$9:$J$9</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'DCF Model'!$A$10</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'DCF Model'!$A$15</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'DCF Model'!$A$18</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'DCF Model'!$B$10:$J$10</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'DCF Model'!$B$15:$J$15</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'DCF Model'!$B$18:$J$18</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'DCF Model'!$B$9:$J$9</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'DCF Model'!$B$10:$J$10</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'DCF Model'!$B$15:$J$15</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'DCF Model'!$B$18:$J$18</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'DCF Model'!$B$9:$J$9</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'DCF Model'!$A$10</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'DCF Model'!$A$15</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'DCF Model'!$A$18</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -716,6 +686,63 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -730,63 +757,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2058,11 +2028,11 @@
     <v>Powered by Refinitiv</v>
     <v>15.04</v>
     <v>2.46</v>
-    <v>2.9813999999999998</v>
-    <v>0.1</v>
-    <v>2.1185999999999997E-2</v>
-    <v>0.08</v>
-    <v>1.6597999999999998E-2</v>
+    <v>2.9662000000000002</v>
+    <v>-0.81499999999999995</v>
+    <v>-0.16908699999999999</v>
+    <v>6.0100000000000001E-2</v>
+    <v>1.5025E-2</v>
     <v>USD</v>
     <v>Jumia Technologies AG is a Germany-based e-commerce platform provider. The Company’s platform consist of sellers with consumers, its logistics service, which enables the shipment and delivery of packages from sellers to consumers, and its payment service, which facilitates transactions among participants active on the Company’s platform. The Company’s marketplace is consists of a range of sellers that offer goods in a wide range of categories, such as fashion and apparel, smartphones, home and living, consumer packaged goods, beauty and perfumes and other electronics. The Company also provide consumers with access to a various services, such as restaurant food delivery, hotel and flight booking, classified advertising and airtime recharge.</v>
     <v>2915</v>
@@ -2070,24 +2040,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Skalitzer Strasse 104, Berlin, BERLIN, 10997 DE</v>
-    <v>4.82</v>
+    <v>4.38</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45602.881944444445</v>
+    <v>45604.040241029688</v>
     <v>0</v>
-    <v>4.5350000000000001</v>
-    <v>590270696</v>
+    <v>3.9</v>
+    <v>490463514</v>
     <v>Jumia Technologies AG</v>
     <v>Jumia Technologies AG</v>
-    <v>4.8</v>
-    <v>4.72</v>
+    <v>4.3600000000000003</v>
     <v>4.82</v>
-    <v>4.9000000000000004</v>
+    <v>4.0049999999999999</v>
+    <v>4.0601000000000003</v>
     <v>122462800</v>
     <v>JMIA</v>
     <v>Jumia Technologies AG (XNYS:JMIA)</v>
-    <v>2853522</v>
-    <v>2209760</v>
+    <v>7146519</v>
+    <v>2165296</v>
     <v>2019</v>
   </rv>
   <rv s="2">
@@ -2977,7 +2947,7 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2988,18 +2958,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="16" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="e" vm="1">
+      <c r="A1" s="76" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
     </row>
     <row r="2" spans="1:18" s="16" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
       <c r="G2" s="49"/>
@@ -3010,14 +2980,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>4.82</v>
+        <v>4.0049999999999999</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="39">
         <f ca="1">A5/F10</f>
-        <v>3.3161275056179775</v>
+        <v>2.7554129999999999</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -3057,14 +3027,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>2.1185999999999997E-2</v>
+        <v>-0.16908699999999999</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="39">
         <f ca="1">A5/F15</f>
-        <v>-5.6756797692307694</v>
+        <v>-4.7159953269230765</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -3105,14 +3075,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="37" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>590270696</v>
+        <v>490463514</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="40">
         <f ca="1">F18/A5</f>
-        <v>-7.2847932806747367E-2</v>
+        <v>-8.7672168821104193E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3154,7 +3124,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>2.9813999999999998</v>
+        <v>2.9662000000000002</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3187,7 +3157,7 @@
       </c>
       <c r="K6" s="46">
         <f ca="1">K5/A3-1</f>
-        <v>0.34186226574914658</v>
+        <v>0.61492537351083332</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
@@ -3253,19 +3223,19 @@
       <c r="E9" s="56">
         <v>2023</v>
       </c>
-      <c r="F9" s="62">
+      <c r="F9" s="57">
         <v>2024</v>
       </c>
-      <c r="G9" s="62">
+      <c r="G9" s="57">
         <v>2025</v>
       </c>
-      <c r="H9" s="62">
+      <c r="H9" s="57">
         <v>2026</v>
       </c>
-      <c r="I9" s="62">
+      <c r="I9" s="57">
         <v>2027</v>
       </c>
-      <c r="J9" s="63">
+      <c r="J9" s="58">
         <v>2028</v>
       </c>
       <c r="K9" s="13"/>
@@ -3293,22 +3263,22 @@
       <c r="E10" s="24">
         <v>186400000</v>
       </c>
-      <c r="F10" s="64">
+      <c r="F10" s="59">
         <v>178000000</v>
       </c>
-      <c r="G10" s="64">
+      <c r="G10" s="59">
         <v>271000000</v>
       </c>
-      <c r="H10" s="64">
+      <c r="H10" s="59">
         <v>351000000</v>
       </c>
-      <c r="I10" s="64">
+      <c r="I10" s="59">
         <v>400000000</v>
       </c>
-      <c r="J10" s="64">
+      <c r="J10" s="59">
         <v>425000000</v>
       </c>
-      <c r="K10" s="65" t="s">
+      <c r="K10" s="60" t="s">
         <v>19</v>
       </c>
       <c r="L10" s="2"/>
@@ -3354,7 +3324,7 @@
         <f t="shared" ref="J11" si="1">(J10/I10)-1</f>
         <v>6.25E-2</v>
       </c>
-      <c r="K11" s="66">
+      <c r="K11" s="61">
         <f>AVERAGE(F11:J11)</f>
         <v>0.1949423248121232</v>
       </c>
@@ -3387,7 +3357,7 @@
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="24"/>
-      <c r="K12" s="67"/>
+      <c r="K12" s="62"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3416,7 +3386,7 @@
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="30"/>
-      <c r="K13" s="68"/>
+      <c r="K13" s="63"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3450,7 +3420,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="26"/>
-      <c r="K14" s="69"/>
+      <c r="K14" s="64"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3475,22 +3445,22 @@
       <c r="E15" s="24">
         <v>-99000000</v>
       </c>
-      <c r="F15" s="64">
+      <c r="F15" s="59">
         <v>-104000000</v>
       </c>
-      <c r="G15" s="64">
+      <c r="G15" s="59">
         <v>-152000000</v>
       </c>
-      <c r="H15" s="64">
+      <c r="H15" s="59">
         <v>40000000</v>
       </c>
-      <c r="I15" s="64">
+      <c r="I15" s="59">
         <v>54542857.142857097</v>
       </c>
-      <c r="J15" s="64">
+      <c r="J15" s="59">
         <v>97385714.285714105</v>
       </c>
-      <c r="K15" s="65" t="s">
+      <c r="K15" s="60" t="s">
         <v>20</v>
       </c>
       <c r="L15" s="2"/>
@@ -3536,7 +3506,7 @@
         <f t="shared" si="2"/>
         <v>0.78548978522786617</v>
       </c>
-      <c r="K16" s="68">
+      <c r="K16" s="63">
         <f>AVERAGE(F16:J16)</f>
         <v>7.9589366221192698E-2</v>
       </c>
@@ -3588,7 +3558,7 @@
         <f t="shared" si="3"/>
         <v>0.2291428571428567</v>
       </c>
-      <c r="K17" s="70"/>
+      <c r="K17" s="65"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3613,22 +3583,22 @@
       <c r="E18" s="24">
         <v>-47000000</v>
       </c>
-      <c r="F18" s="64">
+      <c r="F18" s="59">
         <v>-43000000</v>
       </c>
-      <c r="G18" s="64">
+      <c r="G18" s="59">
         <v>18000000</v>
       </c>
-      <c r="H18" s="64">
+      <c r="H18" s="59">
         <v>66236000</v>
       </c>
-      <c r="I18" s="64">
+      <c r="I18" s="59">
         <v>85000000</v>
       </c>
-      <c r="J18" s="64">
+      <c r="J18" s="59">
         <v>100000000</v>
       </c>
-      <c r="K18" s="65" t="s">
+      <c r="K18" s="60" t="s">
         <v>21</v>
       </c>
       <c r="L18" s="2"/>
@@ -3673,7 +3643,7 @@
         <f t="shared" si="4"/>
         <v>0.17647058823529416</v>
       </c>
-      <c r="K19" s="68">
+      <c r="K19" s="63">
         <f>AVERAGE(F19:J19)</f>
         <v>0.32716547712375299</v>
       </c>
@@ -3725,7 +3695,7 @@
         <f t="shared" si="5"/>
         <v>0.23529411764705882</v>
       </c>
-      <c r="K20" s="71"/>
+      <c r="K20" s="66"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3735,27 +3705,27 @@
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="73">
+      <c r="B21" s="68">
         <v>81081000</v>
       </c>
-      <c r="C21" s="73">
+      <c r="C21" s="68">
         <v>98593000</v>
       </c>
-      <c r="D21" s="73">
+      <c r="D21" s="68">
         <v>99877000</v>
       </c>
-      <c r="E21" s="74">
+      <c r="E21" s="69">
         <v>101000000</v>
       </c>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="65" t="s">
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="60" t="s">
         <v>27</v>
       </c>
       <c r="L21" s="2"/>
@@ -3766,26 +3736,26 @@
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="75"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="77">
+      <c r="A22" s="70"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="72">
         <f t="shared" ref="C22" si="6">(C21/B21)-1</f>
         <v>0.21598154931488267</v>
       </c>
-      <c r="D22" s="78">
+      <c r="D22" s="73">
         <f t="shared" ref="D22" si="7">(D21/C21)-1</f>
         <v>1.3023236943799255E-2</v>
       </c>
-      <c r="E22" s="79">
+      <c r="E22" s="74">
         <f t="shared" ref="E22" si="8">(E21/D21)-1</f>
         <v>1.1243829910790204E-2</v>
       </c>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="80">
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="75">
         <f>AVERAGE(C22:E22)</f>
         <v>8.0082872056490714E-2</v>
       </c>
@@ -3819,17 +3789,17 @@
       <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="59" t="str" cm="1">
+      <c r="A25" s="78" t="str" cm="1">
         <f t="array" aca="1" ref="A25" ca="1">_FV(A1,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60" cm="1">
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="79" cm="1">
         <f t="array" aca="1" ref="D25" ca="1">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2019</v>
       </c>
-      <c r="E25" s="60"/>
+      <c r="E25" s="79"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -3864,14 +3834,14 @@
       <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="61" t="str" cm="1">
+      <c r="A27" s="80" t="str" cm="1">
         <f t="array" aca="1" ref="A27" ca="1">_FV(A1,"Description")</f>
         <v>Jumia Technologies AG is a Germany-based e-commerce platform provider. The Company’s platform consist of sellers with consumers, its logistics service, which enables the shipment and delivery of packages from sellers to consumers, and its payment service, which facilitates transactions among participants active on the Company’s platform. The Company’s marketplace is consists of a range of sellers that offer goods in a wide range of categories, such as fashion and apparel, smartphones, home and living, consumer packaged goods, beauty and perfumes and other electronics. The Company also provide consumers with access to a various services, such as restaurant food delivery, hotel and flight booking, classified advertising and airtime recharge.</v>
       </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -3887,11 +3857,11 @@
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="61"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -3907,11 +3877,11 @@
       <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="61"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -3927,11 +3897,11 @@
       <c r="R29" s="1"/>
     </row>
     <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="61"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -3947,11 +3917,11 @@
       <c r="R30" s="1"/>
     </row>
     <row r="31" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="61"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -3967,11 +3937,11 @@
       <c r="R31" s="1"/>
     </row>
     <row r="32" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="61"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
+      <c r="A32" s="80"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -3987,11 +3957,11 @@
       <c r="R32" s="1"/>
     </row>
     <row r="33" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="61"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
+      <c r="A33" s="80"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -4007,11 +3977,11 @@
       <c r="R33" s="1"/>
     </row>
     <row r="34" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="61"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
+      <c r="A34" s="80"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -4027,11 +3997,11 @@
       <c r="R34" s="1"/>
     </row>
     <row r="35" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="61"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>

--- a/Small Caps/JMIA.xlsx
+++ b/Small Caps/JMIA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Small Caps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CE887F-A24D-5F42-A9E1-57EC2265DFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22311531-F743-6740-A760-0D582C024B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -2027,12 +2027,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>15.04</v>
-    <v>2.46</v>
-    <v>2.9662000000000002</v>
-    <v>-0.81499999999999995</v>
-    <v>-0.16908699999999999</v>
-    <v>6.0100000000000001E-2</v>
-    <v>1.5025E-2</v>
+    <v>2.7749999999999999</v>
+    <v>2.9496000000000002</v>
+    <v>0.02</v>
+    <v>5.3759999999999997E-3</v>
+    <v>-0.01</v>
+    <v>-2.6740000000000002E-3</v>
     <v>USD</v>
     <v>Jumia Technologies AG is a Germany-based e-commerce platform provider. The Company’s platform consist of sellers with consumers, its logistics service, which enables the shipment and delivery of packages from sellers to consumers, and its payment service, which facilitates transactions among participants active on the Company’s platform. The Company’s marketplace is consists of a range of sellers that offer goods in a wide range of categories, such as fashion and apparel, smartphones, home and living, consumer packaged goods, beauty and perfumes and other electronics. The Company also provide consumers with access to a various services, such as restaurant food delivery, hotel and flight booking, classified advertising and airtime recharge.</v>
     <v>2915</v>
@@ -2040,24 +2040,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Skalitzer Strasse 104, Berlin, BERLIN, 10997 DE</v>
-    <v>4.38</v>
+    <v>3.81</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45604.040241029688</v>
+    <v>45615.038577245316</v>
     <v>0</v>
-    <v>3.9</v>
-    <v>490463514</v>
+    <v>3.68</v>
+    <v>458010872</v>
     <v>Jumia Technologies AG</v>
     <v>Jumia Technologies AG</v>
-    <v>4.3600000000000003</v>
-    <v>4.82</v>
-    <v>4.0049999999999999</v>
-    <v>4.0601000000000003</v>
+    <v>3.72</v>
+    <v>3.72</v>
+    <v>3.74</v>
+    <v>3.73</v>
     <v>122462800</v>
     <v>JMIA</v>
     <v>Jumia Technologies AG (XNYS:JMIA)</v>
-    <v>7146519</v>
-    <v>2165296</v>
+    <v>1354352</v>
+    <v>2364246</v>
     <v>2019</v>
   </rv>
   <rv s="2">
@@ -2219,9 +2219,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2980,14 +2980,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>4.0049999999999999</v>
+        <v>3.74</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="39">
         <f ca="1">A5/F10</f>
-        <v>2.7554129999999999</v>
+        <v>2.5730947865168541</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -3027,14 +3027,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-0.16908699999999999</v>
+        <v>5.3759999999999997E-3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="39">
         <f ca="1">A5/F15</f>
-        <v>-4.7159953269230765</v>
+        <v>-4.4039506923076921</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -3075,14 +3075,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="37" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>490463514</v>
+        <v>458010872</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="40">
         <f ca="1">F18/A5</f>
-        <v>-8.7672168821104193E-2</v>
+        <v>-9.3884234258963181E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3124,7 +3124,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>2.9662000000000002</v>
+        <v>2.9496000000000002</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="K6" s="46">
         <f ca="1">K5/A3-1</f>
-        <v>0.61492537351083332</v>
+        <v>0.72935190398686811</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
